--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="336">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -379,10 +379,6 @@
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>302</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1337,14 +1333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/WEB-INF/view/project/completeOfChange.jsp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>success.update.project</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>completeOfUpdate</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1362,10 +1350,6 @@
     <rPh sb="17" eb="20">
       <t>キタイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>success.delete.project</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1860,14 +1844,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"20161231"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"20150101"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"テストマネージャー"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1893,6 +1869,30 @@
   </si>
   <si>
     <t>20161231</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/WEB-INF/view/project/completeOfUpdate.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/WEB-INF/view/project/completeOfDelete.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"2015-01-01"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"2016-12-31"</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2797,9 +2797,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2829,13 +2827,13 @@
     </row>
     <row r="2" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2843,64 +2841,64 @@
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="F5" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="H5" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="I5" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="J5" s="47" t="s">
         <v>264</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="F6" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="G6" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="H6" s="56" t="s">
         <v>272</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>276</v>
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="56" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -2908,7 +2906,7 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2916,31 +2914,31 @@
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -3010,39 +3008,39 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3050,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3073,9 +3071,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3398,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -3407,7 +3403,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -3415,7 +3411,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3946,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4204,13 +4200,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4468,7 +4464,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -4728,7 +4724,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4792,46 +4788,46 @@
         <v>46</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="J14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="K14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5107,13 +5103,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -5124,15 +5120,15 @@
         <v>46</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5391,12 +5387,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -5415,7 +5411,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="34"/>
     </row>
@@ -5424,12 +5420,12 @@
         <v>58</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="38"/>
     </row>
@@ -5441,19 +5437,19 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="35"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="34"/>
       <c r="E33" s="19"/>
@@ -5711,7 +5707,7 @@
     </row>
     <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="34"/>
       <c r="E34" s="19"/>
@@ -5969,10 +5965,10 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -6229,7 +6225,7 @@
     </row>
     <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="34"/>
       <c r="E36" s="19"/>
@@ -6487,7 +6483,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>1</v>
@@ -6747,7 +6743,7 @@
     </row>
     <row r="39" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -7004,7 +7000,7 @@
     </row>
     <row r="40" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -7524,7 +7520,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
@@ -11156,9 +11152,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11481,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -11490,17 +11484,17 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -12031,7 +12025,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -12289,13 +12283,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -12553,7 +12547,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -12813,7 +12807,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -12877,46 +12871,46 @@
         <v>46</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="J14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="K14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -13192,13 +13186,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -13213,7 +13207,7 @@
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13472,7 +13466,7 @@
     </row>
     <row r="22" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -13492,9 +13486,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13817,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -13826,7 +13818,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -13834,7 +13826,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -14365,7 +14357,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -14623,13 +14615,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -14887,7 +14879,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -15147,7 +15139,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -15161,10 +15153,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -15211,52 +15203,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -15551,7 +15543,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -15810,7 +15802,7 @@
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
@@ -15823,10 +15815,10 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
@@ -15842,7 +15834,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
@@ -15873,13 +15865,13 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="34"/>
     </row>
@@ -15891,33 +15883,33 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="34"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="34"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="34"/>
     </row>
@@ -15929,10 +15921,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -15952,9 +15944,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16277,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -16286,15 +16276,15 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -16825,7 +16815,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -17083,13 +17073,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -17347,7 +17337,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -17607,7 +17597,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -17621,10 +17611,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -17671,52 +17661,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -18005,7 +17995,7 @@
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -18264,7 +18254,7 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -18284,9 +18274,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18609,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -18618,7 +18606,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -18626,7 +18614,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -19157,7 +19145,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -19415,13 +19403,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -19679,7 +19667,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -19939,7 +19927,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -19953,10 +19941,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -20003,52 +19991,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -20343,7 +20331,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -20602,7 +20590,7 @@
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
@@ -20615,10 +20603,10 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
@@ -20634,7 +20622,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
@@ -20665,13 +20653,13 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="34"/>
     </row>
@@ -20683,33 +20671,33 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="34"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="34"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="34"/>
     </row>
@@ -20721,10 +20709,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -20744,9 +20732,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21069,7 +21055,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -21081,12 +21067,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -21617,7 +21603,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -21875,13 +21861,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -22139,7 +22125,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -22399,7 +22385,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -22413,10 +22399,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -22463,7 +22449,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -22475,40 +22461,40 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -22803,7 +22789,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -23062,7 +23048,7 @@
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -23082,9 +23068,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -23403,7 +23387,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -23417,7 +23401,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -24204,7 +24188,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -24768,7 +24752,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -25147,9 +25131,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25469,7 +25451,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -25478,14 +25460,14 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -26272,7 +26254,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -26834,7 +26816,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -27093,7 +27075,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -27113,9 +27095,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -27436,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -27451,7 +27431,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -28254,7 +28234,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -29437,9 +29417,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29743,7 +29721,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>18</v>
@@ -29766,7 +29744,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -29778,10 +29756,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="11"/>
@@ -29789,7 +29767,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -30592,7 +30570,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -31112,7 +31090,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -31126,10 +31104,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -31176,52 +31154,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
@@ -32027,18 +32005,18 @@
     </row>
     <row r="22" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:255" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>33</v>
@@ -32047,10 +32025,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>37</v>
@@ -32068,7 +32046,7 @@
         <v>41</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N23" s="49" t="s">
         <v>43</v>
@@ -32082,7 +32060,7 @@
     </row>
     <row r="24" spans="1:255" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>46</v>
@@ -32094,37 +32072,37 @@
         <v>48</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P24" s="52" t="s">
         <v>1</v>
@@ -32147,9 +32125,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32469,7 +32445,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>27</v>
@@ -33014,7 +32990,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -33278,7 +33254,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -33536,7 +33512,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -33804,7 +33780,7 @@
     </row>
     <row r="12" spans="1:256" ht="30" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="19"/>
@@ -33834,7 +33810,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -34093,7 +34069,7 @@
     </row>
     <row r="18" spans="1:255" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -34431,7 +34407,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>17</v>
@@ -34442,37 +34418,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>2</v>
@@ -34481,18 +34457,18 @@
         <v>79</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="11"/>
       <c r="I5" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.35">
@@ -35285,7 +35261,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -35805,7 +35781,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -35819,10 +35795,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -35869,52 +35845,52 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -35937,7 +35913,7 @@
     </row>
     <row r="16" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -35951,10 +35927,10 @@
     </row>
     <row r="17" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>32</v>
@@ -36001,49 +35977,49 @@
     </row>
     <row r="18" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P18" s="82" t="s">
         <v>1</v>
@@ -36593,7 +36569,7 @@
     </row>
     <row r="24" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -36860,18 +36836,18 @@
     </row>
     <row r="27" spans="1:256" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:256" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>33</v>
@@ -36880,10 +36856,10 @@
         <v>34</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>37</v>
@@ -36901,7 +36877,7 @@
         <v>41</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N28" s="49" t="s">
         <v>43</v>
@@ -36915,68 +36891,68 @@
     </row>
     <row r="29" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:256" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:256" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>33</v>
@@ -36985,10 +36961,10 @@
         <v>34</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>37</v>
@@ -37006,7 +36982,7 @@
         <v>41</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N32" s="49" t="s">
         <v>43</v>
@@ -37020,49 +36996,49 @@
     </row>
     <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M33" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O33" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P33" s="54" t="s">
         <v>1</v>
@@ -37085,9 +37061,7 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -37408,7 +37382,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37419,13 +37393,11 @@
       <c r="E4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>235</v>
-      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -38228,7 +38200,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -39291,7 +39263,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -39311,9 +39283,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -39617,7 +39587,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>18</v>
@@ -39638,7 +39608,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -39650,15 +39620,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -40445,7 +40415,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -40965,7 +40935,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -40979,10 +40949,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -41029,7 +40999,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -41041,40 +41011,40 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -41369,7 +41339,7 @@
     </row>
     <row r="23" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -41628,15 +41598,15 @@
     </row>
     <row r="25" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:255" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>33</v>
@@ -41645,10 +41615,10 @@
         <v>34</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>37</v>
@@ -41666,7 +41636,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M26" s="49" t="s">
         <v>43</v>
@@ -42001,7 +41971,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>18</v>
@@ -42022,29 +41992,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -42831,7 +42801,7 @@
     </row>
     <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>26</v>
@@ -43351,7 +43321,7 @@
     </row>
     <row r="11" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -43365,10 +43335,10 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>32</v>
@@ -43415,7 +43385,7 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>46</v>
@@ -43427,40 +43397,40 @@
         <v>48</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -43755,7 +43725,7 @@
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -44014,18 +43984,18 @@
     </row>
     <row r="24" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:255" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>33</v>
@@ -44034,10 +44004,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>37</v>
@@ -44055,7 +44025,7 @@
         <v>41</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N25" s="49" t="s">
         <v>43</v>
@@ -44069,7 +44039,7 @@
     </row>
     <row r="26" spans="1:255" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>46</v>
@@ -44081,40 +44051,40 @@
         <v>48</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M26" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N26" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -44134,9 +44104,7 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -44440,7 +44408,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>18</v>
@@ -44461,7 +44429,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -44474,12 +44442,10 @@
       <c r="G4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>238</v>
-      </c>
+      <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -45266,7 +45232,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -45812,7 +45778,7 @@
     </row>
     <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -46071,7 +46037,7 @@
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -46090,8 +46056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E7" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -46414,13 +46380,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -46960,7 +46926,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -47218,13 +47184,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -47482,7 +47448,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -47742,7 +47708,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -47756,10 +47722,10 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>32</v>
@@ -47806,7 +47772,7 @@
     </row>
     <row r="14" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>46</v>
@@ -47818,40 +47784,40 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L14" s="54" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M14" s="55">
         <v>2000</v>
       </c>
       <c r="N14" s="54" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O14" s="54" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P14" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -48127,13 +48093,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -48144,15 +48110,15 @@
         <v>46</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -48411,7 +48377,7 @@
     </row>
     <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -48423,10 +48389,10 @@
     </row>
     <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
@@ -48437,10 +48403,10 @@
     </row>
     <row r="25" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
@@ -48451,10 +48417,10 @@
     </row>
     <row r="26" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="71"/>
@@ -48465,276 +48431,276 @@
     </row>
     <row r="27" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="86" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B27" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="G27" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="H27" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="I27" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="J27" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="K27" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="L27" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="M27" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="N27" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="O27" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="M27" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="N27" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O28" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="69"/>
       <c r="B29" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="G29" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="H29" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="I29" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="J29" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="K29" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="L29" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="I29" s="70" t="s">
+      <c r="M29" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="N29" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="O29" s="70" t="s">
         <v>309</v>
-      </c>
-      <c r="L29" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="M29" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="N29" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="O29" s="70" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="69" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="G30" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="H30" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="I30" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="J30" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="K30" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="L30" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="M30" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="N30" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="O30" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="69"/>
       <c r="B31" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E31" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F31" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H31" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K31" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="38" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G32" s="57" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H32" s="57" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I32" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="L32" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="J32" s="57" t="s">
+      <c r="M32" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="N32" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="L32" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="M32" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="N32" s="57" t="s">
-        <v>332</v>
-      </c>
       <c r="O32" s="57" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -49079,26 +49045,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>1</v>
@@ -49632,7 +49598,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -49890,13 +49856,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -50154,7 +50120,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -50414,7 +50380,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -50428,7 +50394,7 @@
     </row>
     <row r="13" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>32</v>
@@ -50484,40 +50450,40 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -50793,13 +50759,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -50814,7 +50780,7 @@
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -51073,7 +51039,7 @@
     </row>
     <row r="23" spans="1:255" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -51087,7 +51053,7 @@
     </row>
     <row r="24" spans="1:255" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>32</v>
@@ -51143,40 +51109,40 @@
         <v>48</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O25" s="54" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -51196,9 +51162,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -51517,7 +51481,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -52882,7 +52846,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -53141,7 +53105,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:255" x14ac:dyDescent="0.35">
@@ -53162,7 +53126,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
@@ -53170,7 +53134,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
@@ -53266,9 +53230,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -53572,7 +53534,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>16</v>
@@ -53588,7 +53550,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -53597,14 +53559,14 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -54912,7 +54874,7 @@
     </row>
     <row r="13" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -54947,7 +54909,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -55206,7 +55168,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -55226,9 +55188,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -55529,13 +55489,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>82</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>78</v>
@@ -55549,7 +55509,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -55558,7 +55518,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="11"/>
@@ -55566,7 +55526,7 @@
         <v>77</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.35">
@@ -57422,13 +57382,13 @@
     </row>
     <row r="17" spans="1:15" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:15" s="50" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -57447,49 +57407,49 @@
     </row>
     <row r="20" spans="1:15" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="C20" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="D20" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="E20" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="F20" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="G20" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="H20" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="I20" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="J20" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="K20" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="L20" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="M20" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="N20" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="O20" s="49" t="s">
         <v>118</v>
-      </c>
-      <c r="O20" s="49" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -57497,46 +57457,46 @@
         <v>46</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="52" t="s">
+      <c r="L21" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="52" t="s">
         <v>122</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -57879,26 +57839,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -59764,15 +59724,15 @@
     </row>
     <row r="18" spans="1:255" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:255" s="50" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>33</v>
@@ -59781,10 +59741,10 @@
         <v>34</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>37</v>
@@ -59802,7 +59762,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M19" s="49" t="s">
         <v>43</v>
@@ -60154,7 +60114,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -60169,7 +60129,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -60972,7 +60932,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -62035,7 +61995,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -62378,7 +62338,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -62393,7 +62353,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -63195,7 +63155,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -64377,9 +64337,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -64702,7 +64660,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -64711,7 +64669,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
@@ -64719,7 +64677,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -65250,7 +65208,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -65508,13 +65466,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -65772,7 +65730,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="17"/>
@@ -66032,7 +65990,7 @@
     </row>
     <row r="12" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -66096,46 +66054,46 @@
         <v>46</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="J14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="K14" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="L14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -66424,7 +66382,7 @@
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -66683,12 +66641,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -66707,7 +66665,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="34"/>
     </row>
@@ -66719,7 +66677,7 @@
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="38"/>
     </row>
@@ -66731,45 +66689,45 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="35"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="34"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>1</v>
@@ -66777,12 +66735,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -66798,7 +66756,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">

--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="12450" yWindow="60" windowWidth="16050" windowHeight="12105" tabRatio="766" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="349">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1872,14 +1872,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>303</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>303</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/WEB-INF/view/project/completeOfUpdate.jsp</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1888,11 +1880,115 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"2015-01-01"</t>
+    <t>303</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"2016-12-31"</t>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>orm.projectStartDate</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>018/01/01</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>orm.projectStartDate</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>018/01/01</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"2015/01/01"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"2016/12/31"</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2064,7 +2160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2265,12 +2361,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2424,6 +2529,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4794,10 +4905,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>139</v>
@@ -8559,7 +8670,9 @@
       <c r="A46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="89" t="s">
+        <v>338</v>
+      </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -8817,7 +8930,9 @@
       <c r="A47" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="89" t="s">
+        <v>339</v>
+      </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -15215,10 +15330,10 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>139</v>
@@ -15849,13 +15964,17 @@
       <c r="A31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="89" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="89" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
@@ -20003,7 +20122,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>141</v>
@@ -20637,7 +20756,9 @@
       <c r="A31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="89" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
@@ -23078,7 +23199,8 @@
     <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="19" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="19" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
@@ -24732,6 +24854,10 @@
       <c r="E14" s="63" t="s">
         <v>54</v>
       </c>
+      <c r="F14" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
@@ -24749,6 +24875,10 @@
       <c r="E15" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="F15" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="94"/>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -25058,13 +25188,15 @@
       <c r="A24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="89" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="89"/>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -29344,7 +29476,9 @@
       <c r="A25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="89" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -29759,7 +29893,7 @@
         <v>228</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="11"/>
@@ -34092,8 +34226,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -37397,7 +37531,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -39623,7 +39757,7 @@
         <v>228</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
@@ -41665,9 +41799,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -44445,7 +44577,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -46056,8 +46188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E7" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -48682,10 +48814,10 @@
         <v>310</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="J32" s="57" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K32" s="57" t="s">
         <v>322</v>
@@ -48719,9 +48851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -51172,7 +51302,8 @@
     <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="19" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="19" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
@@ -52826,6 +52957,10 @@
       <c r="E14" s="63" t="s">
         <v>54</v>
       </c>
+      <c r="F14" s="90" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
@@ -52843,6 +52978,10 @@
       <c r="E15" s="37" t="s">
         <v>57</v>
       </c>
+      <c r="F15" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="92"/>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -53157,13 +53296,15 @@
       <c r="A26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="89" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="89"/>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
@@ -55518,7 +55659,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="11"/>
@@ -57516,9 +57657,7 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -59791,9 +59930,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -62015,9 +62152,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -64264,7 +64399,9 @@
       <c r="A25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="89" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -66060,10 +66197,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>139</v>
@@ -66787,13 +66924,17 @@
       <c r="A46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="89" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="89" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
